--- a/biology/Histoire de la zoologie et de la botanique/Johann_Gottlieb_Kugelann/Johann_Gottlieb_Kugelann.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Johann_Gottlieb_Kugelann/Johann_Gottlieb_Kugelann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Gottlieb Kugelann est un pharmacien et un entomologiste prussien, né le 2 janvier 1753 à Königsberg et mort le 8 ou le 9 septembre 1815 à Osterode.
 Il fait paraître en 1798 Verzeichniss der Käfer Preussens... à Halle-sur-Saale.
@@ -512,7 +524,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1792. Verzeichniss der in einigen Gegenden preussens bis jetzt entdeckten Käferarten, nebst kurzen Nachrichten von denselben. Neuestes Mag. Liebhab. Ent. 1 (4) : 477-512.
 1794. Verzeichniss der in einigen Gegenden preussens bis jetzt entdeckten Käferarten nebst kurzen Nachrichten von denselben. Neuestes Mag. Liebhab. Ent. 1 (5) : 513-582.</t>
